--- a/01_レビュー(要求分析)結果記録.xlsx
+++ b/01_レビュー(要求分析)結果記録.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D123026-0646-4F00-AC3E-E5C92217E36D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A599C74-31AA-4C3E-A13C-BC63F0415F8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>会議名</t>
     <rPh sb="0" eb="2">
@@ -280,10 +280,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビュールームB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
@@ -291,44 +287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2020/06/03 (水)
-10:05-10:20</t>
-    <rPh sb="12" eb="13">
-      <t>スイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要求分析</t>
-  </si>
-  <si>
-    <t>ユースケース図</t>
-    <rPh sb="6" eb="7">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非機能要求</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムテスト仕様書</t>
-    <rPh sb="7" eb="10">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>福岡、山本、片岡、源川、上村</t>
     <rPh sb="0" eb="2">
       <t>フクオカ</t>
@@ -348,32 +306,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>片岡</t>
-    <rPh sb="0" eb="2">
-      <t>カタオカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（反復1）要求分析 第1回レビュー</t>
+    <t>（反復1）分析 第1回レビュー</t>
     <rPh sb="1" eb="3">
       <t>ハンプク</t>
     </rPh>
-    <rPh sb="5" eb="9">
-      <t>ヨウキュウブンセキ</t>
+    <rPh sb="5" eb="7">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダイ</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>ダイ</t>
-    </rPh>
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/06/03 (水)
+14:40-15：00</t>
     <rPh sb="12" eb="13">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>畔上様</t>
+      <t>スイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">レビュールームA </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤坂様</t>
     <rPh sb="0" eb="2">
-      <t>アゼガミ</t>
+      <t>アカサカ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>サマ</t>
@@ -381,9 +358,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>畔上様、福岡、山本、片岡、源川、上村</t>
+    <t>赤坂様、福岡、山本、片岡、源川、上村</t>
     <rPh sb="0" eb="2">
-      <t>アゼガミ</t>
+      <t>アカサカ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>サマ</t>
@@ -391,111 +368,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>システムテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要求分析の合否判定：条件付き合格</t>
+    <t>引数が書かれていない</t>
     <rPh sb="0" eb="2">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゴウヒ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ジョウケンツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゴウカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>畔上様</t>
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図、シーケンス図</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤坂様</t>
     <rPh sb="0" eb="3">
-      <t>アゼガミサマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正後、次のレビュー対象物と共に確認していただく。</t>
+      <t>アカサカサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正して、次回のレビューで確認していただく。</t>
     <rPh sb="0" eb="2">
       <t>シュウセイ</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>タイショウブツ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="5" eb="7">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正後、次のレビュー対象物と共に確認していただく。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>事後条件に勝敗か引き分けの結果も書くべき。</t>
-    <rPh sb="0" eb="2">
-      <t>ジゴ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウハイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ワ</t>
+    <t>要求分析修正の確認、分析の合否判定：NG</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウキュウブンセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンセキ</t>
     </rPh>
     <rPh sb="13" eb="15">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予想結果に、実際の出力表示を詳細に書くべき。</t>
-    <rPh sb="0" eb="2">
-      <t>ヨソウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カ</t>
+      <t>ゴウヒ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -539,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -823,11 +753,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -884,50 +840,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,8 +1340,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView view="pageLayout" zoomScale="115" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1391,10 +1353,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1403,78 +1365,78 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="32"/>
+      <c r="A2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1483,80 +1445,72 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -1566,11 +1520,23 @@
       </c>
       <c r="D20" s="16">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1581,17 +1547,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1611,8 +1566,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1653,46 +1608,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" s="9">
         <v>43985</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="9">
-        <v>43985</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
@@ -1906,10 +1846,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1918,10 +1858,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
@@ -1931,66 +1871,66 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1999,10 +1939,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
@@ -2011,10 +1951,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="13" t="s">
         <v>29</v>
       </c>
@@ -2023,10 +1963,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
@@ -2035,44 +1975,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -2087,6 +2027,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -2096,18 +2048,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2392,21 +2332,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2590,31 +2515,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30D90571-F5F0-4CF6-86F9-28367FDD2FE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2630,4 +2546,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>